--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:54</t>
+          <t>12/08/2023 16:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.06</v>
+        <v>6.49</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.11</v>
+        <v>5.64</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.47</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.26</v>
+        <v>7.07</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-lustenau/SUOkWO7g/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-klagenfurt/p6ZpX4hm/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:52</t>
+          <t>12/08/2023 16:54</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.49</v>
+        <v>4.06</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5.64</v>
+        <v>4.11</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>8.029999999999999</v>
+        <v>4.47</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>7.07</v>
+        <v>4.26</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-klagenfurt/p6ZpX4hm/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-lustenau/SUOkWO7g/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>5.85</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5.89</v>
+        <v>8.08</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>4.67</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.89</v>
+        <v>5.37</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-lask-linz/8pKAR0MO/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-sturm-graz/b9aKo47t/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>5.85</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>8.08</v>
+        <v>5.89</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.67</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5.37</v>
+        <v>4.89</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-sturm-graz/b9aKo47t/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-lask-linz/8pKAR0MO/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>5.29</v>
+        <v>4.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5.02</v>
+        <v>3.74</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.63</v>
+        <v>3.95</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-salzburg/Ea2Wr2ia/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-rapid-vienna/KOmTqrxg/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>4.16</v>
+        <v>5.29</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.74</v>
+        <v>5.02</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.95</v>
+        <v>4.63</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-rapid-vienna/KOmTqrxg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-salzburg/Ea2Wr2ia/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,558 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-wolfsberger-ac/fJacmHro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>16/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:38</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45193.60416666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45193.60416666666</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:14</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-sturm-graz/d4ec6dkN/</t>
         </is>
       </c>
     </row>
